--- a/K8S CKS考试做题记录表.xlsx
+++ b/K8S CKS考试做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schw_\OneDrive\Desktop\K8S\CKS\cks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A8E9EC-4DEA-4B93-B671-A6902E33D6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B6E8F-A482-4AA0-B843-1AAB3C8B53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{4A82EB46-F490-4EB6-AF27-F29411987D9B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,22 @@
   </si>
   <si>
     <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pod指定serviceaccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbac rolebinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建secret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1082,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1109,6 +1125,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -1129,7 +1148,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1138,10 +1159,16 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
